--- a/data/trans_dic/P16A04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,84%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,17; 4,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,32; 4,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,61; 2,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,48; 5,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,81; 3,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,88; 3,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,44; 3,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,95; 8,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,19; 3,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>2,28; 3,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,25; 2,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>3,75; 6,99</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,83; 1,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,08; 3,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,56; 2,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,69; 3,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,57; 3,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,56; 4,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,5; 2,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,02; 3,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,33; 2,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,49; 3,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>1,7; 2,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,02; 2,98</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,27; 2,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,83; 4,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,45; 4,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,59; 2,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,56; 2,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,61; 3,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,48; 4,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,5; 3,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,49; 1,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,85; 2,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,73; 3,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>1,24; 2,53</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,4; 2,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,28; 3,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,58; 2,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,79; 2,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,7; 2,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,33; 3,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,76; 2,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,64; 3,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,69; 2,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,48; 3,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,81; 2,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>2,42; 3,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,73%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,68</t>
+          <t>2,49; 5,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,85</t>
+          <t>3,93; 8,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 6,99</t>
+          <t>3,7; 6,59</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,21</t>
+          <t>1,41; 2,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,29</t>
+          <t>1,66; 3,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 2,98</t>
+          <t>1,77; 2,82</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,19</t>
+          <t>0,58; 2,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,61</t>
+          <t>1,51; 3,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,53</t>
+          <t>1,23; 2,46</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,95</t>
+          <t>1,57; 2,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,98</t>
+          <t>2,41; 3,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,32</t>
+          <t>2,21; 3,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,26</t>
+          <t>2,23; 4,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,77</t>
+          <t>2,2; 4,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,19</t>
+          <t>0,64; 2,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,69</t>
+          <t>2,48; 5,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,57</t>
+          <t>1,71; 3,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,73</t>
+          <t>1,84; 3,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,45</t>
+          <t>1,47; 3,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,19</t>
+          <t>3,87; 7,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,6</t>
+          <t>2,21; 3,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,79</t>
+          <t>2,27; 3,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,58</t>
+          <t>1,2; 2,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,59</t>
+          <t>3,67; 6,42</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,88</t>
+          <t>0,78; 1,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,81</t>
+          <t>2,05; 3,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,95</t>
+          <t>1,61; 2,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,89</t>
+          <t>1,36; 2,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,05</t>
+          <t>1,48; 3,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,51</t>
+          <t>2,45; 4,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,81</t>
+          <t>1,49; 2,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,15</t>
+          <t>1,79; 3,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,27</t>
+          <t>1,33; 2,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 3,72</t>
+          <t>2,48; 3,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,65</t>
+          <t>1,69; 2,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,82</t>
+          <t>1,77; 2,81</t>
         </is>
       </c>
     </row>
@@ -1004,52 +1005,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,02</t>
+          <t>0,27; 2,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,13</t>
+          <t>0,65; 3,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,47</t>
+          <t>1,36; 4,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,19</t>
+          <t>0,57; 2,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,54</t>
+          <t>0,55; 2,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,23</t>
+          <t>0,59; 3,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,6</t>
+          <t>1,34; 4,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,54</t>
+          <t>1,43; 3,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,74</t>
+          <t>0,49; 1,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,97</t>
+          <t>0,91; 2,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,46</t>
+          <t>1,19; 2,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,34</t>
+          <t>1,4; 2,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,54</t>
+          <t>2,28; 3,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,63</t>
+          <t>1,59; 2,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,78</t>
+          <t>1,65; 2,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,77</t>
+          <t>1,72; 2,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,54</t>
+          <t>2,33; 3,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,82</t>
+          <t>1,74; 2,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,74</t>
+          <t>2,4; 3,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,39</t>
+          <t>1,68; 2,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,3</t>
+          <t>2,45; 3,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,49</t>
+          <t>1,78; 2,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,12</t>
+          <t>2,2; 3,11</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido antibióticos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>32400</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33056</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9307</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20141</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33714</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35428</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>22717</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>39714</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>66114</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>68485</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32025</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>59855</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22977; 45223</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>21300; 46676</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4851; 15971</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12721; 29747</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22536; 45086</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>24489; 48855</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14638; 34511</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29076; 57834</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>51906; 84507</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>52302; 87502</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21008; 45180</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46483; 81272</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21747</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>54510</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>45666</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47320</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>35266</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>59035</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>41152</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>55644</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>57012</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>113545</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>86818</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>102964</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13275; 31424</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>40174; 71975</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33468; 61039</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>31184; 66811</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>23570; 49429</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>42847; 74624</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>29614; 53814</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>40143; 72477</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>43732; 73466</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>91974; 136887</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>68874; 106964</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>79934; 127016</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4516</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9239</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14162</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7734</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5810</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6854</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14668</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15206</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10326</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16093</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28830</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>22940</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1514; 11587</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3128; 17880</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7427; 24101</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3656; 14775</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2642; 11978</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2718; 15879</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7379; 24768</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9475; 23161</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5005; 19246</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8489; 26885</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18909; 41124</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15541; 32971</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>58663</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>96805</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>69134</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>75194</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>74790</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>101318</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>78538</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>110564</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>133452</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>198123</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>147672</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>185759</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>45782; 74568</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>77738; 119220</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>53573; 86115</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>56888; 96559</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>58066; 93580</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>82406; 123886</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>61414; 97199</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>87593; 133162</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>112047; 158487</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>170160; 229323</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>123331; 175181</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>156341; 220626</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>